--- a/bbb_16/lcsc/BOM_BBB_16v2_SMD_PCB_Other_Parts.xlsx
+++ b/bbb_16/lcsc/BOM_BBB_16v2_SMD_PCB_Other_Parts.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavindouglass/Documents/GitHub/Pixel-Controllers/bbb_16/lcsc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A75A18E-7335-0D4D-91A7-754281054CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2028DC31-6605-4143-AB58-34403B8938B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_BBB_16v2_SMD_PCB_Other_Part" sheetId="1" r:id="rId1"/>
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1084,12 +1084,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1125,7 +1133,7 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -1145,7 +1153,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -1168,7 +1176,7 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -1191,7 +1199,7 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -1214,7 +1222,7 @@
         <v>27</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
@@ -1237,7 +1245,7 @@
         <v>31</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -1260,7 +1268,7 @@
         <v>35</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
@@ -1283,7 +1291,7 @@
         <v>39</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
         <v>40</v>
@@ -1306,7 +1314,7 @@
         <v>44</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
@@ -1329,7 +1337,7 @@
         <v>49</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
         <v>50</v>
@@ -1352,7 +1360,7 @@
         <v>54</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
         <v>52</v>
@@ -1375,7 +1383,7 @@
         <v>58</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -1395,7 +1403,7 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
         <v>63</v>
@@ -1418,7 +1426,7 @@
         <v>67</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
         <v>68</v>
@@ -1438,7 +1446,7 @@
         <v>53</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
         <v>71</v>
@@ -1458,7 +1466,7 @@
         <v>30</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
         <v>73</v>

--- a/bbb_16/lcsc/BOM_BBB_16v2_SMD_PCB_Other_Parts.xlsx
+++ b/bbb_16/lcsc/BOM_BBB_16v2_SMD_PCB_Other_Parts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavindouglass/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavindouglass/Documents/GitHub/Pixel-Controllers/bbb_16/lcsc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{140AAB08-B03C-3448-ABE0-32750E08A283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D14C39-88BD-6F40-AC8C-81420579A14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6640" yWindow="11900" windowWidth="27240" windowHeight="16440" xr2:uid="{239F6DF3-0A44-C047-BE31-E01DC74FDB91}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
   <si>
     <t>C9137</t>
   </si>
@@ -255,6 +255,24 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>DIP-8</t>
+  </si>
+  <si>
+    <t>DS1009-08AT1NX-0A2</t>
+  </si>
+  <si>
+    <t>C72124</t>
+  </si>
+  <si>
+    <t>C440858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cixi Kefa Elec KF2EDGK-3.81-2P </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KF2EDGK-3.81-2P </t>
   </si>
 </sst>
 </file>
@@ -606,15 +624,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F37CD3-7D41-6F45-A93B-9135419088BF}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
@@ -983,6 +1001,40 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
